--- a/X-Project tools/Excel/Randomizer.xlsx
+++ b/X-Project tools/Excel/Randomizer.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ejemplos" sheetId="1" r:id="rId1"/>
     <sheet name="Fixed set" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Theme Name Series" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t>Una letra (1):</t>
   </si>
@@ -79,6 +79,123 @@
   </si>
   <si>
     <t>Generation of a random string by picking values from a fixed set of characters</t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>Zodiac</t>
+  </si>
+  <si>
+    <t>Capricorn</t>
+  </si>
+  <si>
+    <t>Aquarius</t>
+  </si>
+  <si>
+    <t>Pisces</t>
+  </si>
+  <si>
+    <t>Aries</t>
+  </si>
+  <si>
+    <t>Taurus</t>
+  </si>
+  <si>
+    <t>Gemini</t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Virgo</t>
+  </si>
+  <si>
+    <t>Libra</t>
+  </si>
+  <si>
+    <t>Scorpio</t>
+  </si>
+  <si>
+    <t>Sagitarius</t>
+  </si>
+  <si>
+    <t>Greek Alphabet</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Epsilon</t>
+  </si>
+  <si>
+    <t>Zeta</t>
+  </si>
+  <si>
+    <t>Eta</t>
+  </si>
+  <si>
+    <t>Theta</t>
+  </si>
+  <si>
+    <t>Iota</t>
+  </si>
+  <si>
+    <t>Kappa</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>Mu</t>
+  </si>
+  <si>
+    <t>Nu</t>
+  </si>
+  <si>
+    <t>Xi</t>
+  </si>
+  <si>
+    <t>Omicron</t>
+  </si>
+  <si>
+    <t>Pi</t>
+  </si>
+  <si>
+    <t>Rho</t>
+  </si>
+  <si>
+    <t>Sigma</t>
+  </si>
+  <si>
+    <t>Tau</t>
+  </si>
+  <si>
+    <t>Upsilon</t>
+  </si>
+  <si>
+    <t>Phi</t>
+  </si>
+  <si>
+    <t>Chi</t>
+  </si>
+  <si>
+    <t>Psi</t>
+  </si>
+  <si>
+    <t>Omega</t>
   </si>
 </sst>
 </file>
@@ -180,12 +297,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -201,6 +319,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -249,7 +370,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,7 +405,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -496,7 +617,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +632,7 @@
       </c>
       <c r="B1" t="str">
         <f ca="1">CHAR(FLOOR(RAND()*26,1)+65)</f>
-        <v>X</v>
+        <v>J</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -520,7 +641,7 @@
       </c>
       <c r="B2">
         <f ca="1">FLOOR(RAND()*10,1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -529,7 +650,7 @@
       </c>
       <c r="B3" t="str">
         <f ca="1">CHOOSE(FLOOR(RAND()*3,1)+1,"",FLOOR(RAND()*10,1),CHAR(FLOOR(RAND()*26,1)+65))</f>
-        <v/>
+        <v>X</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -538,7 +659,7 @@
       </c>
       <c r="B5">
         <f ca="1">FLOOR(RAND()*10^9,1)</f>
-        <v>610620953</v>
+        <v>9874360</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -547,7 +668,7 @@
       </c>
       <c r="B6" t="str">
         <f ca="1">CHAR(FLOOR(RAND()*26,1)+65)&amp;CHAR(FLOOR(RAND()*26,1)+65)&amp;CHAR(FLOOR(RAND()*26,1)+65)&amp;CHAR(FLOOR(RAND()*26,1)+65)&amp;CHAR(FLOOR(RAND()*26,1)+65)&amp;CHAR(FLOOR(RAND()*26,1)+65)&amp;CHAR(FLOOR(RAND()*26,1)+65)</f>
-        <v>GJSCNBD</v>
+        <v>GDTXQSY</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -556,7 +677,7 @@
       </c>
       <c r="B7">
         <f ca="1">FLOOR(RAND()*10^8,1)/100</f>
-        <v>936428.44</v>
+        <v>419499.62</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -565,7 +686,7 @@
       </c>
       <c r="B8" t="str">
         <f ca="1">CHAR(FLOOR(RAND()*26,1)+65)&amp;FLOOR(RAND()*10^4,1)&amp;"/2013"</f>
-        <v>T3107/2013</v>
+        <v>A2657/2013</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -583,7 +704,7 @@
       </c>
       <c r="B10" t="str">
         <f ca="1">CHOOSE(FLOOR(RAND()*3,1)+1,"",FLOOR(RAND()*10,1),CHAR(FLOOR(RAND()*26,1)+65))&amp;CHOOSE(FLOOR(RAND()*3,1)+1,"",FLOOR(RAND()*10,1),CHAR(FLOOR(RAND()*26,1)+65))&amp;CHOOSE(FLOOR(RAND()*3,1)+1,"",FLOOR(RAND()*10,1),CHAR(FLOOR(RAND()*26,1)+65))&amp;CHOOSE(FLOOR(RAND()*3,1)+1,"",FLOOR(RAND()*10,1),CHAR(FLOOR(RAND()*26,1)+65))&amp;CHOOSE(FLOOR(RAND()*3,1)+1,"",FLOOR(RAND()*10,1),CHAR(FLOOR(RAND()*26,1)+65))&amp;CHOOSE(FLOOR(RAND()*3,1)+1,"",FLOOR(RAND()*10,1),CHAR(FLOOR(RAND()*26,1)+65))&amp;CHOOSE(FLOOR(RAND()*3,1)+1,"",FLOOR(RAND()*10,1),CHAR(FLOOR(RAND()*26,1)+65))&amp;CHOOSE(FLOOR(RAND()*3,1)+1,"",FLOOR(RAND()*10,1),CHAR(FLOOR(RAND()*26,1)+65))&amp;CHOOSE(FLOOR(RAND()*3,1)+1,"",FLOOR(RAND()*10,1),CHAR(FLOOR(RAND()*26,1)+65))&amp;CHOOSE(FLOOR(RAND()*3,1)+1,"",FLOOR(RAND()*10,1),CHAR(FLOOR(RAND()*26,1)+65))&amp;CHOOSE(FLOOR(RAND()*3,1)+1,"",FLOOR(RAND()*10,1),CHAR(FLOOR(RAND()*26,1)+65))&amp;CHOOSE(FLOOR(RAND()*3,1)+1,"",FLOOR(RAND()*10,1),CHAR(FLOOR(RAND()*26,1)+65))&amp;CHOOSE(FLOOR(RAND()*3,1)+1,"",FLOOR(RAND()*10,1),CHAR(FLOOR(RAND()*26,1)+65))&amp;CHOOSE(FLOOR(RAND()*3,1)+1,"",FLOOR(RAND()*10,1),CHAR(FLOOR(RAND()*26,1)+65))&amp;CHOOSE(FLOOR(RAND()*3,1)+1,"",FLOOR(RAND()*10,1),CHAR(FLOOR(RAND()*26,1)+65))</f>
-        <v>K0QAJ15M2</v>
+        <v>1D51OI4G5</v>
       </c>
     </row>
   </sheetData>
@@ -595,7 +716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -620,10 +741,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -688,7 +809,7 @@
       </c>
       <c r="C7" s="3">
         <f ca="1">RAND()</f>
-        <v>0.59666352037253279</v>
+        <v>0.83293335767733057</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>16</v>
@@ -703,7 +824,7 @@
       </c>
       <c r="C8" s="3">
         <f ca="1">FLOOR(C7*C6,1)+1</f>
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>16</v>
@@ -718,7 +839,7 @@
       </c>
       <c r="C9" s="3" t="str">
         <f ca="1">MID(C4,C8,1)</f>
-        <v>K</v>
+        <v>Z</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>16</v>
@@ -733,7 +854,7 @@
       </c>
       <c r="C10" s="3" t="str">
         <f ca="1">MID(C4,FLOOR(RAND()*LEN(C4),1)+1,1)</f>
-        <v>e</v>
+        <v>W</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>16</v>
@@ -761,7 +882,7 @@
       </c>
       <c r="C12" s="3" t="str">
         <f ca="1">MID(C4,FLOOR(RAND()*LEN(C4),1)+1,1)&amp;MID(C4,FLOOR(RAND()*LEN(C4),1)+1,1)&amp;MID(C4,FLOOR(RAND()*LEN(C4),1)+1,1)&amp;MID(C4,FLOOR(RAND()*LEN(C4),1)+1,1)&amp;MID(C4,FLOOR(RAND()*LEN(C4),1)+1,1)&amp;MID(C4,FLOOR(RAND()*LEN(C4),1)+1,1)&amp;MID(C4,FLOOR(RAND()*LEN(C4),1)+1,1)&amp;MID(C4,FLOOR(RAND()*LEN(C4),1)+1,1)&amp;MID(C4,FLOOR(RAND()*LEN(C4),1)+1,1)&amp;MID(C4,FLOOR(RAND()*LEN(C4),1)+1,1)</f>
-        <v>Vp0Cyi3BCH</v>
+        <v>sYwN9pgD5L</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -786,12 +907,259 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>